--- a/reports/_APL_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_40_.xlsx
+++ b/reports/_APL_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_40_.xlsx
@@ -1563,7 +1563,7 @@
           <t>EBIL</t>
         </is>
       </c>
-      <c r="M6" s="0" t="d">
+      <c r="M6" s="4" t="d">
         <v>2018-09-28T12:36:15</v>
       </c>
       <c r="N6" s="0" t="inlineStr">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="S6" s="0"/>
       <c r="T6" s="0"/>
-      <c r="U6" s="0"/>
+      <c r="U6" s="4"/>
       <c r="V6" s="0" t="inlineStr">
         <is>
           <t/>
@@ -2265,122 +2265,41 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>40286</v>
-      </c>
-      <c r="C14" s="0" t="inlineStr">
-        <is>
-          <t>APHU4588373</t>
-        </is>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="E14" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F14" s="0" t="inlineStr">
-        <is>
-          <t>APL</t>
-        </is>
-      </c>
-      <c r="G14" s="0" t="inlineStr">
-        <is>
-          <t>APL</t>
-        </is>
-      </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I14" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
+      <c r="A14" s="0"/>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
+      <c r="I14" s="0"/>
       <c r="J14" s="0"/>
       <c r="K14" s="0"/>
-      <c r="L14" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="M14" s="4" t="d">
-        <v>2018-10-02T18:49:17.212</v>
-      </c>
-      <c r="N14" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="L14" s="0"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="0"/>
       <c r="O14" s="0"/>
-      <c r="P14" s="0" t="n">
-        <v>62</v>
-      </c>
-      <c r="Q14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
-      <c r="S14" s="0" t="inlineStr">
-        <is>
-          <t>CMA</t>
-        </is>
-      </c>
-      <c r="T14" s="0" t="inlineStr">
-        <is>
-          <t>CMC</t>
-        </is>
-      </c>
-      <c r="U14" s="4" t="d">
-        <v>2018-10-02T18:49:17.212</v>
-      </c>
-      <c r="V14" s="0" t="n">
-        <v>1480205</v>
-      </c>
-      <c r="W14" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="P14" s="0"/>
+      <c r="Q14" s="0"/>
+      <c r="R14" s="0"/>
+      <c r="S14" s="0"/>
+      <c r="T14" s="0"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="0"/>
+      <c r="W14" s="0"/>
       <c r="X14" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y14" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL INK</t>
         </is>
       </c>
-      <c r="Z14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y14" s="0"/>
+      <c r="Z14" s="0"/>
+      <c r="AA14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>40295</v>
@@ -2462,7 +2381,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>40296</v>
@@ -2550,7 +2469,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>40297</v>
@@ -2640,7 +2559,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>40298</v>
@@ -2730,7 +2649,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>40299</v>
@@ -2844,7 +2763,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>40300</v>
@@ -2922,7 +2841,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>40301</v>
@@ -3036,7 +2955,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>40312</v>
@@ -3118,7 +3037,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>40344</v>
@@ -3208,7 +3127,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>40377</v>

--- a/reports/_APL_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_40_.xlsx
+++ b/reports/_APL_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_40_.xlsx
@@ -1309,7 +1309,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.589887640449438" hidden="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="202.18988764044946" hidden="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
@@ -2265,37 +2265,16 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="0"/>
-      <c r="B14" s="0"/>
-      <c r="C14" s="0"/>
-      <c r="D14" s="0"/>
-      <c r="E14" s="0"/>
-      <c r="F14" s="0"/>
-      <c r="G14" s="0"/>
-      <c r="H14" s="0"/>
-      <c r="I14" s="0"/>
-      <c r="J14" s="0"/>
-      <c r="K14" s="0"/>
-      <c r="L14" s="0"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="0"/>
-      <c r="O14" s="0"/>
-      <c r="P14" s="0"/>
-      <c r="Q14" s="0"/>
-      <c r="R14" s="0"/>
-      <c r="S14" s="0"/>
-      <c r="T14" s="0"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="0"/>
-      <c r="W14" s="0"/>
-      <c r="X14" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL INK</t>
-        </is>
-      </c>
-      <c r="Y14" s="0"/>
-      <c r="Z14" s="0"/>
-      <c r="AA14" s="0"/>
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL INK", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">

--- a/reports/_APL_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_40_.xlsx
+++ b/reports/_APL_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_40_.xlsx
@@ -1309,7 +1309,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="202.18988764044946" hidden="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.589887640449438" hidden="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
@@ -2270,9 +2270,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL INK", "", "", ""]</t>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
+      <c r="I14" s="0"/>
+      <c r="J14" s="0"/>
+      <c r="K14" s="0"/>
+      <c r="L14" s="0"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="0"/>
+      <c r="O14" s="0"/>
+      <c r="P14" s="0"/>
+      <c r="Q14" s="0"/>
+      <c r="R14" s="0"/>
+      <c r="S14" s="0"/>
+      <c r="T14" s="0"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="0"/>
+      <c r="W14" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X14" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y14" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL INK</t>
+        </is>
+      </c>
+      <c r="Z14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB14" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>

--- a/reports/_APL_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_40_.xlsx
+++ b/reports/_APL_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_40_.xlsx
@@ -1362,7 +1362,7 @@
     <row ht="16" customHeight="true" r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Total number of conatiners:18</t>
+          <t>Total number of containers:18</t>
         </is>
       </c>
     </row>
